--- a/数据整理/stocks/A股/科创板/688095-福昕软件.xlsx
+++ b/数据整理/stocks/A股/科创板/688095-福昕软件.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>28.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>97.15</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.04</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4223</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -576,15 +606,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.44</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.31</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0732</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -604,15 +644,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>29.42</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.18</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>29.42</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.18</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688095-福昕软件.xlsx
+++ b/数据整理/stocks/A股/科创板/688095-福昕软件.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688095-福昕软件.xlsx
+++ b/数据整理/stocks/A股/科创板/688095-福昕软件.xlsx
@@ -732,12 +732,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688095-福昕软件.xlsx
+++ b/数据整理/stocks/A股/科创板/688095-福昕软件.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -716,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,17 +728,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -747,14 +768,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.16</v>
+          <t>001068</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华融新锐灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>48.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -763,13 +806,119 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>001797</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华融新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.42</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688095-福昕软件.xlsx
+++ b/数据整理/stocks/A股/科创板/688095-福昕软件.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,95 +453,217 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>506003</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国科创板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>28.22</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>97.15</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.4223</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001068</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华融新锐灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>48.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001797</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华融新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -711,218 +833,96 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001068</t>
+          <t>506003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华融新锐灵活配置混合</t>
+          <t>富国科创板两年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>28.22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>48.32</t>
+          <t>97.15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0072</t>
+          <t>1.4223</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001797</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华融新利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>74.19</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.16</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688095-福昕软件.xlsx
+++ b/数据整理/stocks/A股/科创板/688095-福昕软件.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1.16</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.42</v>
       </c>
     </row>
@@ -532,6 +549,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成景恒混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001068</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华融新锐灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>53.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006038</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成景恒混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -663,7 +850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -833,7 +1020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688095-福昕软件.xlsx
+++ b/数据整理/stocks/A股/科创板/688095-福昕软件.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>1.16</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.42</v>
       </c>
     </row>
@@ -549,6 +566,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成景恒混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006038</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成景恒混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001068</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国新国证新锐灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001797</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国新国证新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -718,7 +943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -850,7 +1075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1020,7 +1245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
